--- a/www/js/Лист Microsoft Office Excel.xlsx
+++ b/www/js/Лист Microsoft Office Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3008,10 +3008,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="A1:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3027,34 +3027,34 @@
     <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <f>$L$9</f>
-        <v>141.19999999999999</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>$L$10</f>
-        <v>189.8</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1">
         <f>$L$11</f>
-        <v>24.999999999999996</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1">
         <f>$L$12</f>
-        <v>27.500000000000004</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -3062,34 +3062,34 @@
       <c r="J1" s="3"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <f>IF(ROW()&lt;=$N$8,B1+$L$13+$M$14*(ROW()-2),0)</f>
-        <v>170.8</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1">
         <f>IF(ROW()&lt;=$N$8,D1+$M$13+$N$14*(ROW()-2),0)</f>
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1">
         <f>F1-$N$11</f>
-        <v>24.227272727272723</v>
+        <v>20.454545454545453</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1">
         <f>H1-$N$12</f>
-        <v>27.04545454545455</v>
+        <v>23.545454545454547</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -3097,34 +3097,34 @@
       <c r="J2" s="3"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B15" si="0">IF(ROW()&lt;=$N$8,B2+$L$13+$M$14*(ROW()-2),0)</f>
-        <v>199.37015873015875</v>
+        <v>132.22222222222223</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D15" si="1">IF(ROW()&lt;=$N$8,D2+$M$13+$N$14*(ROW()-2),0)</f>
-        <v>180.04888888888888</v>
+        <v>70.111111111111114</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F15" si="2">F2-$N$11</f>
-        <v>23.45454545454545</v>
+        <v>19.909090909090907</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1">
         <f>H2-$N$12</f>
-        <v>26.590909090909097</v>
+        <v>23.090909090909093</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -3132,34 +3132,34 @@
       <c r="J3" s="3"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>226.91047619047623</v>
+        <v>156.66666666666669</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>174.94666666666666</v>
+        <v>67.333333333333343</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>22.681818181818176</v>
+        <v>19.36363636363636</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H3:H15" si="3">H3-$N$12</f>
-        <v>26.136363636363644</v>
+        <f t="shared" ref="H4:H15" si="3">H3-$N$12</f>
+        <v>22.63636363636364</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -3167,34 +3167,34 @@
       <c r="J4" s="3"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>253.42095238095243</v>
+        <v>180.33333333333334</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>169.69333333333333</v>
+        <v>64.666666666666671</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>21.909090909090903</v>
+        <v>18.818181818181813</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="3"/>
-        <v>25.681818181818191</v>
+        <v>22.181818181818187</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -3202,34 +3202,34 @@
       <c r="J5" s="3"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>278.90158730158737</v>
+        <v>203.22222222222223</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>164.28888888888889</v>
+        <v>62.111111111111114</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>21.13636363636363</v>
+        <v>18.272727272727266</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="3"/>
-        <v>25.227272727272737</v>
+        <v>21.727272727272734</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -3237,34 +3237,34 @@
       <c r="J6" s="3"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>303.352380952381</v>
+        <v>225.33333333333334</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>158.73333333333335</v>
+        <v>59.666666666666671</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>20.363636363636356</v>
+        <v>17.72727272727272</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>24.772727272727284</v>
+        <v>21.27272727272728</v>
       </c>
       <c r="I7" t="s">
         <v>4</v>
@@ -3274,35 +3274,47 @@
       <c r="N7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="Q7">
+        <f>$B20</f>
+        <v>81</v>
+      </c>
+      <c r="R7">
+        <f>$H20</f>
+        <v>306</v>
+      </c>
+      <c r="T7">
+        <f>$E20</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>326.77333333333337</v>
+        <v>246.66666666666669</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>153.02666666666667</v>
+        <v>57.333333333333336</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>19.590909090909083</v>
+        <v>17.181818181818173</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="3"/>
-        <v>24.318181818181831</v>
+        <v>20.818181818181827</v>
       </c>
       <c r="I8" t="s">
         <v>4</v>
@@ -3320,35 +3332,47 @@
       <c r="O8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="Q8">
+        <f>$D20</f>
+        <v>76</v>
+      </c>
+      <c r="R8">
+        <f>$J20</f>
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <f>$G20</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>349.16444444444448</v>
+        <v>267.22222222222223</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>147.16888888888889</v>
+        <v>55.111111111111114</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>18.818181818181809</v>
+        <v>16.636363636363626</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="3"/>
-        <v>23.863636363636378</v>
+        <v>20.363636363636374</v>
       </c>
       <c r="I9" t="s">
         <v>4</v>
@@ -3358,43 +3382,55 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>141.19999999999999</v>
+        <v>81</v>
       </c>
       <c r="M9">
-        <v>390.85714285714283</v>
+        <v>306</v>
       </c>
       <c r="O9">
-        <v>170.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>$K20</f>
+        <v>21</v>
+      </c>
+      <c r="R9" s="1">
+        <f>$L20</f>
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <f>(Q9-R9)/$N$8</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>370.52571428571429</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>141.16</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>18.045454545454536</v>
+        <v>16.090909090909079</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="3"/>
-        <v>23.409090909090924</v>
+        <v>19.909090909090921</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
@@ -3404,55 +3440,55 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>189.8</v>
+        <v>76</v>
       </c>
       <c r="M10">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="O10">
-        <v>185</v>
-      </c>
-      <c r="P10">
-        <f>$B23</f>
-        <v>141.19999999999999</v>
-      </c>
-      <c r="Q10">
-        <f>$H23</f>
-        <v>390.85714285714283</v>
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>$M20</f>
+        <v>24</v>
+      </c>
+      <c r="R10" s="1">
+        <f>$N20</f>
+        <v>19</v>
       </c>
       <c r="S10">
-        <f>$E23</f>
-        <v>170.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <f>(Q10-R10)/$N$8</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>390.85714285714283</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>17.272727272727263</v>
+        <v>15.545454545454534</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>22.954545454545471</v>
+        <v>19.454545454545467</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
@@ -3462,28 +3498,18 @@
         <v>7</v>
       </c>
       <c r="L11" s="1">
-        <v>24.999999999999996</v>
+        <v>21</v>
       </c>
       <c r="M11" s="1">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>0.77272727272727237</v>
-      </c>
-      <c r="P11">
-        <f>$D23</f>
-        <v>189.8</v>
-      </c>
-      <c r="Q11">
-        <f>$J23</f>
-        <v>135</v>
-      </c>
-      <c r="S11">
-        <f>$G23</f>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3497,39 +3523,30 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>16.499999999999989</v>
+        <v>14.999999999999989</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="3"/>
-        <v>22.500000000000018</v>
+        <v>19.000000000000014</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="1">
-        <v>27.500000000000004</v>
+        <v>24</v>
       </c>
       <c r="M12" s="1">
-        <v>22.500000000000004</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>0.45454545454545453</v>
       </c>
-      <c r="P12" s="1">
-        <f>$K23</f>
-        <v>24.999999999999996</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>$L23</f>
-        <v>16.5</v>
-      </c>
-      <c r="R12">
-        <f>(P12-Q12)/$N$8</f>
-        <v>0.77272727272727237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3540,11 +3557,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>15.727272727272718</v>
+        <v>14.454545454545444</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="3"/>
-        <v>22.045454545454565</v>
+        <v>18.545454545454561</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" t="s">
@@ -3552,26 +3569,16 @@
       </c>
       <c r="L13" s="1">
         <f>O9-L9</f>
-        <v>29.600000000000023</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1">
         <f>O10-L10</f>
-        <v>-4.8000000000000114</v>
-      </c>
-      <c r="P13" s="1">
-        <f>$M23</f>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>$N23</f>
-        <v>22.500000000000004</v>
-      </c>
-      <c r="R13">
-        <f>(P13-Q13)/$N$8</f>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>-3</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3582,26 +3589,26 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>14.954545454545446</v>
+        <v>13.909090909090899</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="3"/>
-        <v>21.590909090909111</v>
+        <v>18.090909090909108</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" s="1"/>
       <c r="M14" s="15">
         <f>((M9-L9)/($N$8-1)-L13)*2/($N$8-2)</f>
-        <v>-1.0298412698412751</v>
+        <v>-0.77777777777777779</v>
       </c>
       <c r="N14" s="15">
         <f>((M10-L10)/($N$8-1)-M13)*2/($N$8-2)</f>
-        <v>-0.15111111111110886</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3612,11 +3619,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>14.181818181818175</v>
+        <v>13.363636363636354</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="3"/>
-        <v>21.136363636363658</v>
+        <v>17.636363636363654</v>
       </c>
       <c r="J15" s="3"/>
       <c r="L15" s="1"/>
@@ -4049,7 +4056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
